--- a/programma_dly_obrabotki_chekov/test.xlsx
+++ b/programma_dly_obrabotki_chekov/test.xlsx
@@ -439,16 +439,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG16"/>
+  <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="84" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="P5" zoomScale="84" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.109375" customWidth="1" min="1" max="1"/>
-    <col width="15.88671875" customWidth="1" min="2" max="2"/>
+    <col width="71.44140625" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -815,380 +815,857 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Нулевая N шина на двух угловых синих изоляторах REXANT 6х9 мм 10 групп 11-2327</t>
-        </is>
-      </c>
-      <c r="AE7" t="n">
-        <v>114</v>
+          <t>Нап. мол. Кофе Капучино п\п большой</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
+          <t>Биг Маэстро Бургер оригинальный</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Баскет Картофель фри</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Соус Барбекю</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DIN-рейка Tekfor оцинкованная DNR-2-0,8-75 07-02-001</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Кабель ВВГ-ПНГ А - LS Камкабель 2x2.5 мм 20м ГОСТ 1157К20HD00070А0020М</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tekfor DIN-рейка оцинкованная DNR-2-0,8-75 07-02-001</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Камкабель Кабель ВВГ-ПНГ А - LS 2x2.5 мм 20 м ГОСТ 1157К20HD00070А0020М</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Оплата за ОСАГО № ТТТ7052283062</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>13051.64</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Оплата за КАСКО № 7892W/046/E02720/24</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>77047</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Абонемент на канатную дорогу</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>6150</v>
+      </c>
+      <c r="U17" t="n">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Оплата услуг ПАО "Ростелеком" по номеру: 79520980383</t>
+        </is>
+      </c>
+      <c r="W18" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Нулевая N шина на двух угловых синих изоляторах REXANT 6х9 мм 10 групп 11-2327</t>
+        </is>
+      </c>
+      <c r="AD19" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
           <t>Щипцы для зачистки электропроводов GROSS 17718</t>
         </is>
       </c>
-      <c r="AE8" t="n">
+      <c r="AD20" t="n">
         <v>1799</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Март</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Категория</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Подкатегория</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>1 Мар.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>2 Мар.</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>3 Мар.</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>4 Мар.</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>5 Мар.</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>6 Мар.</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>7 Мар.</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>8 Мар.</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>9 Мар.</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>10 Мар.</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>11 Мар.</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>12 Мар.</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>13 Мар.</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>14 Мар.</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>15 Мар.</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>16 Мар.</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>17 Мар.</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>18 Мар.</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>19 Мар.</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="V24" t="inlineStr">
         <is>
           <t>20 Мар.</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="W24" t="inlineStr">
         <is>
           <t>21 Мар.</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="X24" t="inlineStr">
         <is>
           <t>22 Мар.</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Y24" t="inlineStr">
         <is>
           <t>23 Мар.</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="Z24" t="inlineStr">
         <is>
           <t>24 Мар.</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AA24" t="inlineStr">
         <is>
           <t>25 Мар.</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AB24" t="inlineStr">
         <is>
           <t>26 Мар.</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AC24" t="inlineStr">
         <is>
           <t>27 Мар.</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AD24" t="inlineStr">
         <is>
           <t>28 Мар.</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AE24" t="inlineStr">
         <is>
           <t>29 Мар.</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AF24" t="inlineStr">
         <is>
           <t>30 Мар.</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AG24" t="inlineStr">
         <is>
           <t>31 Мар.</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Продукты</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Печенье ДЫМКА Мария 300г</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>69.89</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Пакет ЛЕНТА 12кг</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Бананы вес 1кг</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>116.16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Мороженое БАЛТИЙСК сливоч двухсл эск 80г</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>79.98999999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>79.98999999999999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Антипасти BUR CL рыж перч сыр в мас280г</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>284.99</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Колбаски МИРАТОРГ для Гриля охл 400г</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>164.99</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Лапша DOSHIRAK Чан Рамен с кур бул 120г</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>328.45</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>GROSS Щипцы для зачистки электропроводов, 0,05-8 кв. мм// 17718</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>REXANT Шина N нулевая 6x9 мм на двух угловых синих изоляторах 10 групп 11-2327</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Welcome</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Рукав д/запекания HC 5мx30см,с перф.швом</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>89.98999999999999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Горчица МАХЕЕВЪ готовая Русская 100г</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>36.99</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Набор 2500</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>14162</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>З/щетка PRESIDENT Exclusive</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>259.99</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Творог PRESIDENT рассыпчатый 5% 450г</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>189.99</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>З/ПАСТА SPLAT MEDICAL HERBS PROF 100МЛ</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>154.99</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>З/ПАСТА SPLAT PROF ULTRACOMPLEX 100МЛ</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>154.99</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ОПОЛ-ЛЬ Д/Д ЛЕС БАЛЬЗАМ КОРЫ ДУБА 400МЛ</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>159.99</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DIN84  5*14  ВИНТ  4.8  SL (прямой шлиц)  Zn</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DIN338 сверло  РОССИЯ   D 5,5</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>82.84999999999999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DIN934  M 5 ГАЙКА 8  zn</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DIN127 D 5  ГРОВЕР  Zn</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DIN125 D 5  ШАЙБА  Zn</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>DIN84  5*25  ВИНТ  4.8  SL (прямой шлиц)  Zn</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>31.65</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Приспособление съемник для снятия разбора стоек и разбора рулевой рейки 3 в 1 195224</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Булочка КАРАВАЙ Ассоль в/с 2*50г</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>35.99</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Сочни АЛАДУШКИН ягодные (черника) 120г</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>51.99</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Сдоба АЛАДУШКИН Венская с маком 200</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  6 Часов   Взрослый</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Термоноски, 3 пары</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ТРК №2 Бензин АИ-98</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2937.3157</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ТРК №1 Бензин АИ-98</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2832.2502</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Кабель силовой низкотоксичный ВВГнг(A)-LSLTx 1х4 мм2 ГОСТ 1м</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ТРК №2 Бензин автомобильный ЭКТО-100 (АИ-100-К5)</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1404.144</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ТРК №1 Бензин автомобильный ЭКТО-100 (АИ-100-К5)</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>3156.0178</v>
+      </c>
+    </row>
+    <row r="61"/>
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>Апрель</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>Категория</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Подкатегория</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>1 Апр.</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>2 Апр.</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>3 Апр.</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>4 Апр.</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>5 Апр.</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>6 Апр.</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>7 Апр.</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>8 Апр.</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>9 Апр.</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L63" t="inlineStr">
         <is>
           <t>10 Апр.</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>11 Апр.</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N63" t="inlineStr">
         <is>
           <t>12 Апр.</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="O63" t="inlineStr">
         <is>
           <t>13 Апр.</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="P63" t="inlineStr">
         <is>
           <t>14 Апр.</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q63" t="inlineStr">
         <is>
           <t>15 Апр.</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="R63" t="inlineStr">
         <is>
           <t>16 Апр.</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="S63" t="inlineStr">
         <is>
           <t>17 Апр.</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="T63" t="inlineStr">
         <is>
           <t>18 Апр.</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="U63" t="inlineStr">
         <is>
           <t>19 Апр.</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="V63" t="inlineStr">
         <is>
           <t>20 Апр.</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="W63" t="inlineStr">
         <is>
           <t>21 Апр.</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="X63" t="inlineStr">
         <is>
           <t>22 Апр.</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="Y63" t="inlineStr">
         <is>
           <t>23 Апр.</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="Z63" t="inlineStr">
         <is>
           <t>24 Апр.</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr">
+      <c r="AA63" t="inlineStr">
         <is>
           <t>25 Апр.</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AB63" t="inlineStr">
         <is>
           <t>26 Апр.</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AC63" t="inlineStr">
         <is>
           <t>27 Апр.</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AD63" t="inlineStr">
         <is>
           <t>28 Апр.</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AE63" t="inlineStr">
         <is>
           <t>29 Апр.</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AF63" t="inlineStr">
         <is>
           <t>30 Апр.</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AG63" t="inlineStr">
         <is>
           <t>31 Апр.</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>Продукты</t>
         </is>
